--- a/data/case1/16/Plm1_4.xlsx
+++ b/data/case1/16/Plm1_4.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.23554697474668274</v>
+        <v>-0.24002744690420741</v>
       </c>
       <c r="B1" s="0">
-        <v>0.23522242166140472</v>
+        <v>0.23966817983475153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.13617128200958106</v>
+        <v>-0.13930244796758728</v>
       </c>
       <c r="B2" s="0">
-        <v>0.13539101751816673</v>
+        <v>0.13848884348537993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.032460024250504205</v>
+        <v>-0.035552154918033096</v>
       </c>
       <c r="B3" s="0">
-        <v>0.032418355524885811</v>
+        <v>0.035500765946057555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.094397214755126413</v>
+        <v>-0.097489253776263496</v>
       </c>
       <c r="B4" s="0">
-        <v>0.094176162371276462</v>
+        <v>0.097248037770629736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.08817616503454051</v>
+        <v>-0.091248038985110469</v>
       </c>
       <c r="B5" s="0">
-        <v>0.087746308528146244</v>
+        <v>0.090786688870180932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.055770309685724939</v>
+        <v>-0.060648447275621908</v>
       </c>
       <c r="B6" s="0">
-        <v>0.055732677967486932</v>
+        <v>0.060603359376520949</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.035732681068157746</v>
+        <v>-0.040603360813589617</v>
       </c>
       <c r="B7" s="0">
-        <v>0.035678778141537748</v>
+        <v>0.040529987100335063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.015678781255330065</v>
+        <v>-0.020529988544763178</v>
       </c>
       <c r="B8" s="0">
-        <v>0.015653606865508429</v>
+        <v>0.020493761643324504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0096536096039967489</v>
+        <v>-0.014493762896138129</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0096346478809508085</v>
+        <v>0.014467862636347917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0036346506252371569</v>
+        <v>-0.0084678638931947603</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0036387729512910028</v>
+        <v>0.0084697017466979219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.00086122434555235827</v>
+        <v>-0.0039697029825092045</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.00086103743009147138</v>
+        <v>0.003967394196383367</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0068610346857362892</v>
+        <v>0.002032604546259531</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0069153636197909485</v>
+        <v>-0.0020792253076691303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.056337398859670706</v>
+        <v>-0.052358499696292249</v>
       </c>
       <c r="B13" s="0">
-        <v>0.056218690307781038</v>
+        <v>0.052251957895824042</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.044218693228506467</v>
+        <v>-0.040251959244563373</v>
       </c>
       <c r="B14" s="0">
-        <v>0.044123835403589773</v>
+        <v>0.040165489787087338</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.02104649040739659</v>
+        <v>-0.021048940925786574</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021024714857670546</v>
+        <v>0.02102568113991321</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015024717634687601</v>
+        <v>-0.015025682413853492</v>
       </c>
       <c r="B16" s="0">
-        <v>0.01500238747411986</v>
+        <v>0.015003395654440421</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009002390260874904</v>
+        <v>-0.0090033969332186103</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999971297887171</v>
+        <v>0.0089999986779991659</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.089051142363732794</v>
+        <v>-0.0903657331072516</v>
       </c>
       <c r="B18" s="0">
-        <v>0.088980928585645103</v>
+        <v>0.090288646181694077</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.079980931270350109</v>
+        <v>-0.081288647409323289</v>
       </c>
       <c r="B19" s="0">
-        <v>0.079377531558956882</v>
+        <v>0.08066518127427269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.070377534322254576</v>
+        <v>-0.071665182538044547</v>
       </c>
       <c r="B20" s="0">
-        <v>0.070251555990916259</v>
+        <v>0.071532429433343481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.061251558769837899</v>
+        <v>-0.062532430704665742</v>
       </c>
       <c r="B21" s="0">
-        <v>0.061078720136420905</v>
+        <v>0.062351734190375208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093930995989840227</v>
+        <v>-0.093936689811840779</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093626022381636531</v>
+        <v>0.093628251216456349</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084626025126119053</v>
+        <v>-0.084628252472212395</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124119147805487</v>
+        <v>0.084125185485470766</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124122844074741</v>
+        <v>-0.04212518722744818</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999996284213026</v>
+        <v>0.041999998248549275</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.025976001552979966</v>
+        <v>-0.024138242831330814</v>
       </c>
       <c r="B25" s="0">
-        <v>0.025978079519390462</v>
+        <v>0.024138308909783746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.019978082230654337</v>
+        <v>-0.018138310147097769</v>
       </c>
       <c r="B26" s="0">
-        <v>0.019979009783085644</v>
+        <v>0.018137722870413597</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.013979012495494381</v>
+        <v>-0.012137724108513659</v>
       </c>
       <c r="B27" s="0">
-        <v>0.013963100170269804</v>
+        <v>0.012124973627941849</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0079631028910851498</v>
+        <v>-0.0061249748694640616</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0079599600460067421</v>
+        <v>0.0061226325129872805</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0040400370654403162</v>
+        <v>0.0058773661597779636</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.004038721723487626</v>
+        <v>-0.005877008075522383</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.024038718615583932</v>
+        <v>0.025877006635795397</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.024315840452765691</v>
+        <v>-0.026163820058247467</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.037154857916615214</v>
+        <v>-0.036330586049281521</v>
       </c>
       <c r="B31" s="0">
-        <v>0.037091176755408739</v>
+        <v>0.036264868753528745</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060002177720317462</v>
+        <v>-0.0060004600025749255</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999972847020189</v>
+        <v>0.0059999987619150374</v>
       </c>
     </row>
   </sheetData>
